--- a/image/testscript.xlsx
+++ b/image/testscript.xlsx
@@ -1995,45 +1995,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.8984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.73046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="130.05078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="134.1953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="101.2265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="53.58203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="100.3671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.1796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="53.90234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/testscript.xlsx
+++ b/image/testscript.xlsx
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -390,10 +390,6 @@
     <t>TestScript.version</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Business version of the test script</t>
   </si>
   <si>
@@ -1123,6 +1119,10 @@
   </si>
   <si>
     <t>TestScript.variable.sourceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
   </si>
   <si>
     <t>Fixture Id of source expression or headerField within this variable</t>
@@ -1995,45 +1995,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.73046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.8984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="134.1953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="130.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="100.3671875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="53.90234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="101.2265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="53.58203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3403,16 +3403,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3480,10 +3480,10 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3514,19 +3514,19 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -3575,7 +3575,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>48</v>
@@ -3584,7 +3584,7 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3627,16 +3627,16 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3686,7 +3686,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3704,7 +3704,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3741,13 +3741,13 @@
         <v>67</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3773,52 +3773,52 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3849,19 +3849,19 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3910,7 +3910,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3928,10 +3928,10 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3939,11 +3939,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3962,16 +3962,16 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4021,7 +4021,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -4039,10 +4039,10 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4073,19 +4073,19 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -4134,7 +4134,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -4152,10 +4152,10 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4186,16 +4186,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4245,7 +4245,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -4263,7 +4263,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4297,16 +4297,16 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4356,7 +4356,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -4374,7 +4374,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4408,19 +4408,19 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -4469,7 +4469,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -4487,7 +4487,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4521,16 +4521,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4556,14 +4556,14 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4598,7 +4598,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4632,16 +4632,16 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4691,7 +4691,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4709,10 +4709,10 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>118</v>
@@ -4720,11 +4720,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4743,17 +4743,17 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4802,7 +4802,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4820,7 +4820,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4854,16 +4854,16 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4913,7 +4913,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4925,7 +4925,7 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4965,13 +4965,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5022,7 +5022,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5080,7 +5080,7 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>96</v>
@@ -5133,7 +5133,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -5162,11 +5162,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5188,10 +5188,10 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>96</v>
@@ -5246,7 +5246,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5298,16 +5298,16 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5357,7 +5357,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>48</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5409,51 +5409,51 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P31" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Q31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Q31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>48</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5522,16 +5522,16 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5581,7 +5581,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5593,7 +5593,7 @@
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5633,13 +5633,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5690,7 +5690,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5748,7 +5748,7 @@
         <v>94</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>96</v>
@@ -5801,7 +5801,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5830,11 +5830,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5856,10 +5856,10 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>96</v>
@@ -5914,7 +5914,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5966,16 +5966,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6025,7 +6025,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>48</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6077,51 +6077,51 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P37" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Q37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Q37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>48</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6190,13 +6190,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6247,7 +6247,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -6259,7 +6259,7 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>40</v>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6299,13 +6299,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6356,7 +6356,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6414,7 +6414,7 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>96</v>
@@ -6467,7 +6467,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6496,11 +6496,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6522,10 +6522,10 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>96</v>
@@ -6580,7 +6580,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6632,13 +6632,13 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6689,7 +6689,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6701,7 +6701,7 @@
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>40</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6741,13 +6741,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6798,7 +6798,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6856,7 +6856,7 @@
         <v>94</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>96</v>
@@ -6909,7 +6909,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6938,11 +6938,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6964,10 +6964,10 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>96</v>
@@ -7022,7 +7022,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7077,10 +7077,10 @@
         <v>61</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7131,7 +7131,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>48</v>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7183,13 +7183,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7240,7 +7240,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -7269,7 +7269,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7292,16 +7292,16 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7351,7 +7351,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>48</v>
@@ -7363,7 +7363,7 @@
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>40</v>
@@ -7380,7 +7380,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7403,13 +7403,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7460,7 +7460,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7518,7 +7518,7 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>96</v>
@@ -7571,7 +7571,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7600,11 +7600,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7626,10 +7626,10 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>96</v>
@@ -7684,7 +7684,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7736,13 +7736,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7793,7 +7793,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>48</v>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7845,13 +7845,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7902,7 +7902,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>48</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7954,13 +7954,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8011,7 +8011,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -8040,7 +8040,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8063,13 +8063,13 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8120,7 +8120,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8172,13 +8172,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8229,7 +8229,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8284,10 +8284,10 @@
         <v>61</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8338,7 +8338,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8390,16 +8390,16 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8449,7 +8449,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>48</v>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8501,13 +8501,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8558,7 +8558,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8570,7 +8570,7 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>40</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8610,13 +8610,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8667,7 +8667,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8725,7 +8725,7 @@
         <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>96</v>
@@ -8778,7 +8778,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8807,11 +8807,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8833,10 +8833,10 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>96</v>
@@ -8891,7 +8891,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8920,7 +8920,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8943,13 +8943,13 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9000,7 +9000,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>48</v>
@@ -9029,7 +9029,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9052,13 +9052,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9109,7 +9109,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>48</v>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9161,16 +9161,16 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9220,7 +9220,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -9249,7 +9249,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9272,16 +9272,16 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9331,7 +9331,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9360,7 +9360,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9383,16 +9383,16 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9442,7 +9442,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9454,7 +9454,7 @@
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>40</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9494,13 +9494,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9551,7 +9551,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9580,7 +9580,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9609,7 +9609,7 @@
         <v>94</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>96</v>
@@ -9662,7 +9662,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9691,11 +9691,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9717,10 +9717,10 @@
         <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>96</v>
@@ -9775,7 +9775,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9804,7 +9804,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9827,16 +9827,16 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9886,7 +9886,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>48</v>
@@ -9915,7 +9915,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9938,16 +9938,16 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9997,7 +9997,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -10026,7 +10026,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10049,13 +10049,13 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10106,7 +10106,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -10135,7 +10135,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10158,16 +10158,16 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10217,7 +10217,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -10246,7 +10246,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10269,16 +10269,16 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10328,7 +10328,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10357,7 +10357,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10380,13 +10380,13 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10437,7 +10437,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10466,7 +10466,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10489,16 +10489,16 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="M77" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10548,7 +10548,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10600,7 +10600,7 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>357</v>
@@ -10659,7 +10659,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10711,7 +10711,7 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>361</v>
@@ -10780,7 +10780,7 @@
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>40</v>
@@ -10820,13 +10820,13 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10877,7 +10877,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10935,7 +10935,7 @@
         <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>96</v>
@@ -10988,7 +10988,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11043,10 +11043,10 @@
         <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>96</v>
@@ -11101,7 +11101,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -11153,7 +11153,7 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>367</v>
@@ -11264,13 +11264,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11321,7 +11321,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -11379,7 +11379,7 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>96</v>
@@ -11432,7 +11432,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11487,10 +11487,10 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>96</v>
@@ -11545,7 +11545,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11597,7 +11597,7 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>375</v>
@@ -11706,13 +11706,13 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11763,7 +11763,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11821,7 +11821,7 @@
         <v>94</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>96</v>
@@ -11874,7 +11874,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11929,10 +11929,10 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>96</v>
@@ -11987,7 +11987,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -12039,7 +12039,7 @@
         <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>382</v>
@@ -12074,7 +12074,7 @@
         <v>40</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>385</v>
@@ -12185,7 +12185,7 @@
         <v>40</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X92" t="s" s="2">
         <v>391</v>
@@ -12261,7 +12261,7 @@
         <v>40</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>394</v>
@@ -12372,7 +12372,7 @@
         <v>40</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>398</v>
@@ -12518,7 +12518,7 @@
         <v>40</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X95" t="s" s="2">
         <v>405</v>
@@ -12629,7 +12629,7 @@
         <v>40</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X96" t="s" s="2">
         <v>405</v>
@@ -12705,7 +12705,7 @@
         <v>40</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>412</v>
@@ -12816,7 +12816,7 @@
         <v>40</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>416</v>
@@ -12960,7 +12960,7 @@
         <v>40</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X99" t="s" s="2">
         <v>422</v>
@@ -13036,7 +13036,7 @@
         <v>40</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>425</v>
@@ -13147,7 +13147,7 @@
         <v>40</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>429</v>
@@ -13258,7 +13258,7 @@
         <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>433</v>
@@ -13329,7 +13329,7 @@
         <v>40</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>40</v>
@@ -13369,13 +13369,13 @@
         <v>40</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13426,7 +13426,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13484,7 +13484,7 @@
         <v>94</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>96</v>
@@ -13537,7 +13537,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -13570,7 +13570,7 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13592,10 +13592,10 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>96</v>
@@ -13650,7 +13650,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13702,7 +13702,7 @@
         <v>40</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>440</v>
@@ -13813,7 +13813,7 @@
         <v>40</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>444</v>
@@ -13924,7 +13924,7 @@
         <v>40</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>448</v>
@@ -14035,7 +14035,7 @@
         <v>40</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>452</v>
@@ -14146,7 +14146,7 @@
         <v>40</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>456</v>
@@ -14255,7 +14255,7 @@
         <v>40</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>459</v>
@@ -14366,7 +14366,7 @@
         <v>40</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>463</v>
@@ -14477,7 +14477,7 @@
         <v>40</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>467</v>
@@ -14588,13 +14588,13 @@
         <v>40</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -14645,7 +14645,7 @@
         <v>40</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -14703,7 +14703,7 @@
         <v>94</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>96</v>
@@ -14756,7 +14756,7 @@
         <v>40</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -14789,7 +14789,7 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14811,10 +14811,10 @@
         <v>93</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>96</v>
@@ -14869,7 +14869,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -14921,7 +14921,7 @@
         <v>40</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>475</v>
@@ -15032,7 +15032,7 @@
         <v>40</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>477</v>
@@ -15178,7 +15178,7 @@
         <v>40</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X119" t="s" s="2">
         <v>482</v>
@@ -15254,7 +15254,7 @@
         <v>40</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>485</v>
@@ -15363,7 +15363,7 @@
         <v>40</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>488</v>
@@ -15474,7 +15474,7 @@
         <v>40</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>492</v>
@@ -15620,7 +15620,7 @@
         <v>40</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X123" t="s" s="2">
         <v>405</v>
@@ -15696,7 +15696,7 @@
         <v>40</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>500</v>
@@ -15807,7 +15807,7 @@
         <v>40</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>440</v>
@@ -15918,7 +15918,7 @@
         <v>40</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>507</v>
@@ -16029,7 +16029,7 @@
         <v>40</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>511</v>
@@ -16175,7 +16175,7 @@
         <v>40</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X128" t="s" s="2">
         <v>518</v>
@@ -16251,7 +16251,7 @@
         <v>40</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>521</v>
@@ -16397,7 +16397,7 @@
         <v>40</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X130" t="s" s="2">
         <v>422</v>
@@ -16473,7 +16473,7 @@
         <v>40</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>528</v>
@@ -16619,7 +16619,7 @@
         <v>40</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X132" t="s" s="2">
         <v>391</v>
@@ -16730,7 +16730,7 @@
         <v>40</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X133" t="s" s="2">
         <v>537</v>
@@ -16806,7 +16806,7 @@
         <v>40</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>540</v>
@@ -16917,7 +16917,7 @@
         <v>40</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>544</v>
@@ -17028,7 +17028,7 @@
         <v>40</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>548</v>
@@ -17139,7 +17139,7 @@
         <v>40</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>552</v>
@@ -17250,7 +17250,7 @@
         <v>40</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>556</v>
@@ -17361,7 +17361,7 @@
         <v>40</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>560</v>
@@ -17430,7 +17430,7 @@
         <v>40</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>40</v>
@@ -17470,13 +17470,13 @@
         <v>40</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17527,7 +17527,7 @@
         <v>40</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
@@ -17585,7 +17585,7 @@
         <v>94</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M141" t="s" s="2">
         <v>96</v>
@@ -17638,7 +17638,7 @@
         <v>40</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -17671,7 +17671,7 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17693,10 +17693,10 @@
         <v>93</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>96</v>
@@ -17751,7 +17751,7 @@
         <v>40</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -17803,7 +17803,7 @@
         <v>40</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>566</v>
@@ -17912,7 +17912,7 @@
         <v>40</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>569</v>
@@ -18021,7 +18021,7 @@
         <v>40</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>572</v>
@@ -18132,13 +18132,13 @@
         <v>40</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -18189,7 +18189,7 @@
         <v>40</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -18247,7 +18247,7 @@
         <v>94</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M147" t="s" s="2">
         <v>96</v>
@@ -18300,7 +18300,7 @@
         <v>40</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>41</v>
@@ -18333,7 +18333,7 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18355,10 +18355,10 @@
         <v>93</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M148" t="s" s="2">
         <v>96</v>
@@ -18413,7 +18413,7 @@
         <v>40</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -18685,7 +18685,7 @@
         <v>40</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>584</v>
@@ -18754,7 +18754,7 @@
         <v>40</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>40</v>
@@ -18794,13 +18794,13 @@
         <v>40</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18851,7 +18851,7 @@
         <v>40</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>41</v>
@@ -18909,7 +18909,7 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M153" t="s" s="2">
         <v>96</v>
@@ -18962,7 +18962,7 @@
         <v>40</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>41</v>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -19017,10 +19017,10 @@
         <v>93</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>96</v>
@@ -19075,7 +19075,7 @@
         <v>40</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -19127,7 +19127,7 @@
         <v>40</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>590</v>
@@ -19198,7 +19198,7 @@
         <v>40</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>40</v>
@@ -19238,13 +19238,13 @@
         <v>40</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L156" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -19295,7 +19295,7 @@
         <v>40</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>41</v>
@@ -19353,7 +19353,7 @@
         <v>94</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M157" t="s" s="2">
         <v>96</v>
@@ -19406,7 +19406,7 @@
         <v>40</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -19439,7 +19439,7 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -19461,10 +19461,10 @@
         <v>93</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M158" t="s" s="2">
         <v>96</v>
@@ -19519,7 +19519,7 @@
         <v>40</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
